--- a/Data Files/Inventory/Pick New Demo Devices.xlsx
+++ b/Data Files/Inventory/Pick New Demo Devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>request_Notes</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>0517011501-002711</t>
+  </si>
+  <si>
+    <t>M-KOPA 30</t>
+  </si>
+  <si>
+    <t>0315020301-000119</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -509,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
